--- a/AAII_Financials/Quarterly/INVO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INVO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>INVO</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,63 +665,67 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>300</v>
+      </c>
+      <c r="E8" s="3">
         <v>200</v>
-      </c>
-      <c r="E8" s="3">
-        <v>300</v>
       </c>
       <c r="F8" s="3">
         <v>300</v>
@@ -730,19 +734,22 @@
         <v>300</v>
       </c>
       <c r="H8" s="3">
+        <v>300</v>
+      </c>
+      <c r="I8" s="3">
         <v>700</v>
-      </c>
-      <c r="I8" s="3">
-        <v>200</v>
       </c>
       <c r="J8" s="3">
         <v>200</v>
       </c>
       <c r="K8" s="3">
+        <v>200</v>
+      </c>
+      <c r="L8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -759,27 +766,30 @@
         <v>0</v>
       </c>
       <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
         <v>100</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
       <c r="J9" s="3">
         <v>0</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3">
         <v>200</v>
-      </c>
-      <c r="E10" s="3">
-        <v>300</v>
       </c>
       <c r="F10" s="3">
         <v>300</v>
@@ -788,19 +798,22 @@
         <v>300</v>
       </c>
       <c r="H10" s="3">
+        <v>300</v>
+      </c>
+      <c r="I10" s="3">
         <v>600</v>
-      </c>
-      <c r="I10" s="3">
-        <v>200</v>
       </c>
       <c r="J10" s="3">
         <v>200</v>
       </c>
       <c r="K10" s="3">
+        <v>200</v>
+      </c>
+      <c r="L10" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,19 +825,20 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>8</v>
+      <c r="F12" s="3">
+        <v>0</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>8</v>
@@ -841,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,8 +919,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E17" s="3">
         <v>1300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-600</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1042,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1038,46 +1072,52 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>500</v>
+      </c>
+      <c r="E22" s="3">
         <v>300</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
@@ -1085,48 +1125,54 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1200,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,8 +1424,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1386,37 +1456,43 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,37 +1619,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>900</v>
+      </c>
+      <c r="E41" s="3">
         <v>1500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,17 +1681,20 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
@@ -1609,19 +1702,22 @@
         <v>0</v>
       </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>100</v>
-      </c>
-      <c r="J43" s="3">
-        <v>200</v>
       </c>
       <c r="K43" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1632,7 +1728,7 @@
         <v>200</v>
       </c>
       <c r="F44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G44" s="3">
         <v>100</v>
@@ -1644,13 +1740,16 @@
         <v>100</v>
       </c>
       <c r="J44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1676,68 +1775,77 @@
         <v>200</v>
       </c>
       <c r="K45" s="3">
+        <v>200</v>
+      </c>
+      <c r="L45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E46" s="3">
         <v>2000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
         <v>0</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1757,16 +1865,19 @@
         <v>200</v>
       </c>
       <c r="I48" s="3">
+        <v>200</v>
+      </c>
+      <c r="J48" s="3">
         <v>100</v>
       </c>
-      <c r="J48" s="3">
-        <v>0</v>
-      </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1783,7 +1894,7 @@
         <v>100</v>
       </c>
       <c r="H49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I49" s="3">
         <v>0</v>
@@ -1794,8 +1905,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,8 +1969,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1881,8 +2001,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E54" s="3">
         <v>2300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,49 +2095,53 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E57" s="3">
         <v>300</v>
       </c>
       <c r="F57" s="3">
+        <v>300</v>
+      </c>
+      <c r="G57" s="3">
         <v>400</v>
-      </c>
-      <c r="G57" s="3">
-        <v>500</v>
       </c>
       <c r="H57" s="3">
         <v>500</v>
       </c>
       <c r="I57" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J57" s="3">
         <v>600</v>
       </c>
       <c r="K57" s="3">
+        <v>600</v>
+      </c>
+      <c r="L57" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="3">
+        <v>200</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>400</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
@@ -2015,16 +2149,19 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>200</v>
-      </c>
-      <c r="J58" s="3">
-        <v>400</v>
       </c>
       <c r="K58" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2032,77 +2169,83 @@
         <v>1300</v>
       </c>
       <c r="E59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F59" s="3">
         <v>1200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1100</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1700</v>
       </c>
       <c r="H59" s="3">
         <v>1700</v>
       </c>
       <c r="I59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J59" s="3">
         <v>5800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E60" s="3">
         <v>1600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>600</v>
+      </c>
+      <c r="E61" s="3">
         <v>1000</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>400</v>
-      </c>
-      <c r="G61" s="3">
-        <v>300</v>
       </c>
       <c r="H61" s="3">
         <v>300</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2110,28 +2253,31 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E62" s="3">
         <v>3300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4000</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
@@ -2139,8 +2285,11 @@
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E66" s="3">
         <v>5900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6300</v>
-      </c>
-      <c r="H66" s="3">
-        <v>6600</v>
       </c>
       <c r="I66" s="3">
         <v>6600</v>
       </c>
       <c r="J66" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K66" s="3">
         <v>3500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-26700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-25300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-23900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-23100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-22400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-22200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-21700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-20900</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +2832,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2663,8 +2862,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,8 +3070,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2873,14 +3094,17 @@
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,13 +3164,16 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -2960,14 +3190,17 @@
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,17 +3338,20 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>2300</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -3116,16 +3362,19 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,33 +3402,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E102" s="3">
         <v>1200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INVO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INVO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>INVO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,64 +665,71 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="E8" s="3">
         <v>200</v>
@@ -731,30 +738,36 @@
         <v>300</v>
       </c>
       <c r="G8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H8" s="3">
         <v>300</v>
       </c>
       <c r="I8" s="3">
+        <v>300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>300</v>
+      </c>
+      <c r="K8" s="3">
         <v>700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -769,24 +782,30 @@
         <v>0</v>
       </c>
       <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
         <v>100</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
       <c r="L9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E10" s="3">
         <v>200</v>
@@ -795,25 +814,31 @@
         <v>300</v>
       </c>
       <c r="G10" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H10" s="3">
         <v>300</v>
       </c>
       <c r="I10" s="3">
+        <v>300</v>
+      </c>
+      <c r="J10" s="3">
+        <v>300</v>
+      </c>
+      <c r="K10" s="3">
         <v>600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,8 +851,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -835,16 +862,16 @@
         <v>100</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>8</v>
@@ -858,8 +885,14 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,8 +923,14 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -922,8 +961,14 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +999,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +1016,86 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F17" s="3">
         <v>1600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>900</v>
-      </c>
-      <c r="I17" s="3">
-        <v>700</v>
-      </c>
-      <c r="J17" s="3">
-        <v>500</v>
       </c>
       <c r="K17" s="3">
         <v>700</v>
       </c>
       <c r="L17" s="3">
+        <v>500</v>
+      </c>
+      <c r="M17" s="3">
+        <v>700</v>
+      </c>
+      <c r="N17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,8 +1108,10 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1075,104 +1142,128 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-1100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>900</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F22" s="3">
         <v>500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
-      </c>
-      <c r="J22" s="3">
-        <v>100</v>
-      </c>
-      <c r="K22" s="3">
-        <v>300</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>300</v>
+      </c>
+      <c r="N22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1203,8 +1294,14 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1332,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1446,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1484,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1522,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,8 +1560,14 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1459,40 +1598,52 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1674,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1775,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,40 +1791,48 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F41" s="3">
         <v>900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>2000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>3100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,57 +1863,69 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
         <v>200</v>
       </c>
       <c r="L43" s="3">
+        <v>100</v>
+      </c>
+      <c r="M43" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F44" s="3">
         <v>200</v>
       </c>
       <c r="G44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I44" s="3">
         <v>100</v>
@@ -1743,18 +1934,24 @@
         <v>100</v>
       </c>
       <c r="K44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E45" s="3">
         <v>200</v>
@@ -1778,53 +1975,65 @@
         <v>200</v>
       </c>
       <c r="L45" s="3">
+        <v>200</v>
+      </c>
+      <c r="M45" s="3">
+        <v>200</v>
+      </c>
+      <c r="N45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F46" s="3">
         <v>1400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>3200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>3400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
+        <v>300</v>
+      </c>
+      <c r="E47" s="3">
+        <v>100</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>8</v>
@@ -1838,14 +2047,20 @@
       <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1868,16 +2083,22 @@
         <v>200</v>
       </c>
       <c r="J48" s="3">
+        <v>200</v>
+      </c>
+      <c r="K48" s="3">
+        <v>200</v>
+      </c>
+      <c r="L48" s="3">
         <v>100</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1897,10 +2118,10 @@
         <v>100</v>
       </c>
       <c r="I49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -1908,8 +2129,14 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2167,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,8 +2205,14 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1983,20 +2222,20 @@
       <c r="E52" s="3">
         <v>0</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2004,8 +2243,14 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2281,52 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>10900</v>
+      </c>
+      <c r="F54" s="3">
         <v>1700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>3400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2339,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,8 +2355,10 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2108,92 +2369,110 @@
         <v>300</v>
       </c>
       <c r="F57" s="3">
+        <v>500</v>
+      </c>
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
+        <v>300</v>
+      </c>
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>300</v>
+      </c>
+      <c r="E58" s="3">
+        <v>700</v>
+      </c>
+      <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="G58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>400</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="E59" s="3">
         <v>1300</v>
       </c>
       <c r="F59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>5800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2201,95 +2480,113 @@
         <v>1900</v>
       </c>
       <c r="E60" s="3">
-        <v>1600</v>
+        <v>2300</v>
       </c>
       <c r="F60" s="3">
         <v>1900</v>
       </c>
       <c r="G60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I60" s="3">
         <v>1500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>6600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1000</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>300</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F62" s="3">
         <v>3100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>3300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>3500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>3700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>3800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>4000</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2617,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2655,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2693,52 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F66" s="3">
         <v>5600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>5900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>5400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>5500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>6300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>6600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>6600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2751,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2785,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2823,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2861,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2899,52 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-34700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-32200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-28400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-26700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-25300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-23900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-23100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-22400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-22200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-21700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-20900</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2975,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +3013,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +3051,52 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F76" s="3">
         <v>-3900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-3600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-4400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-3700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-3800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-3200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-3100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-2700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +3127,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,8 +3228,10 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2865,8 +3262,14 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3300,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3338,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3376,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3414,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3452,52 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-900</v>
+        <v>-1700</v>
       </c>
       <c r="E89" s="3">
-        <v>-1200</v>
+        <v>-1800</v>
       </c>
       <c r="F89" s="3">
         <v>-900</v>
       </c>
       <c r="G89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>3100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,13 +3510,15 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -3097,14 +3538,20 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L91" s="3" t="s">
+      <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3582,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,19 +3620,25 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -3193,14 +3652,20 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3" t="s">
+      <c r="N94" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3678,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3712,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3750,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3788,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,8 +3826,14 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3350,14 +3841,14 @@
         <v>400</v>
       </c>
       <c r="E100" s="3">
+        <v>11100</v>
+      </c>
+      <c r="F100" s="3">
+        <v>400</v>
+      </c>
+      <c r="G100" s="3">
         <v>2300</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -3365,16 +3856,22 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,36 +3902,48 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>1200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>2800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INVO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INVO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>INVO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,83 +665,87 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>200</v>
+      </c>
+      <c r="E8" s="3">
         <v>700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>200</v>
-      </c>
-      <c r="H8" s="3">
-        <v>300</v>
       </c>
       <c r="I8" s="3">
         <v>300</v>
@@ -750,28 +754,31 @@
         <v>300</v>
       </c>
       <c r="K8" s="3">
+        <v>300</v>
+      </c>
+      <c r="L8" s="3">
         <v>700</v>
-      </c>
-      <c r="L8" s="3">
-        <v>200</v>
       </c>
       <c r="M8" s="3">
         <v>200</v>
       </c>
       <c r="N8" s="3">
+        <v>200</v>
+      </c>
+      <c r="O8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
         <v>100</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
@@ -788,36 +795,39 @@
         <v>0</v>
       </c>
       <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
         <v>100</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
       <c r="M9" s="3">
         <v>0</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>200</v>
+      </c>
+      <c r="E10" s="3">
         <v>600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>200</v>
-      </c>
-      <c r="H10" s="3">
-        <v>300</v>
       </c>
       <c r="I10" s="3">
         <v>300</v>
@@ -826,19 +836,22 @@
         <v>300</v>
       </c>
       <c r="K10" s="3">
+        <v>300</v>
+      </c>
+      <c r="L10" s="3">
         <v>600</v>
-      </c>
-      <c r="L10" s="3">
-        <v>200</v>
       </c>
       <c r="M10" s="3">
         <v>200</v>
       </c>
       <c r="N10" s="3">
+        <v>200</v>
+      </c>
+      <c r="O10" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,28 +866,29 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
         <v>100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>100</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
       <c r="H12" s="3">
         <v>0</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>8</v>
+      <c r="I12" s="3">
+        <v>0</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>8</v>
@@ -891,8 +905,11 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,8 +946,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,8 +987,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E17" s="3">
         <v>2200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,13 +1143,14 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1148,64 +1182,70 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
         <v>900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
@@ -1213,57 +1253,63 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1300,8 +1346,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,13 +1633,16 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1604,46 +1674,52 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,46 +1879,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E41" s="3">
         <v>8400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,26 +1959,29 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
         <v>500</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
       <c r="I43" s="3">
         <v>0</v>
       </c>
@@ -1896,19 +1989,22 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>100</v>
-      </c>
-      <c r="M43" s="3">
-        <v>200</v>
       </c>
       <c r="N43" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1919,7 +2015,7 @@
         <v>300</v>
       </c>
       <c r="F44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G44" s="3">
         <v>200</v>
@@ -1928,7 +2024,7 @@
         <v>200</v>
       </c>
       <c r="I44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J44" s="3">
         <v>100</v>
@@ -1940,21 +2036,24 @@
         <v>100</v>
       </c>
       <c r="M44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
-      </c>
-      <c r="E45" s="3">
-        <v>200</v>
       </c>
       <c r="F45" s="3">
         <v>200</v>
@@ -1981,62 +2080,68 @@
         <v>200</v>
       </c>
       <c r="N45" s="3">
+        <v>200</v>
+      </c>
+      <c r="O45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E46" s="3">
         <v>9600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>10500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E47" s="3">
         <v>300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>100</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
+      <c r="G47" s="3">
+        <v>0</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>8</v>
@@ -2053,19 +2158,22 @@
       <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="E48" s="3">
         <v>200</v>
@@ -2089,16 +2197,19 @@
         <v>200</v>
       </c>
       <c r="L48" s="3">
+        <v>200</v>
+      </c>
+      <c r="M48" s="3">
         <v>100</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2124,7 +2235,7 @@
         <v>100</v>
       </c>
       <c r="K49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2135,8 +2246,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,8 +2328,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2222,8 +2342,8 @@
       <c r="E52" s="3">
         <v>0</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>8</v>
+      <c r="F52" s="3">
+        <v>0</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>8</v>
@@ -2237,8 +2357,8 @@
       <c r="J52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2249,8 +2369,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,46 +2410,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E54" s="3">
         <v>10200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,67 +2487,71 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
-      </c>
-      <c r="G57" s="3">
-        <v>300</v>
       </c>
       <c r="H57" s="3">
         <v>300</v>
       </c>
       <c r="I57" s="3">
+        <v>300</v>
+      </c>
+      <c r="J57" s="3">
         <v>400</v>
-      </c>
-      <c r="J57" s="3">
-        <v>500</v>
       </c>
       <c r="K57" s="3">
         <v>500</v>
       </c>
       <c r="L57" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M57" s="3">
         <v>600</v>
       </c>
       <c r="N57" s="3">
+        <v>600</v>
+      </c>
+      <c r="O57" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>200</v>
+      </c>
+      <c r="E58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="H58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>400</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
@@ -2425,24 +2559,27 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>200</v>
-      </c>
-      <c r="M58" s="3">
-        <v>400</v>
       </c>
       <c r="N58" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
         <v>1000</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1300</v>
       </c>
       <c r="F59" s="3">
         <v>1300</v>
@@ -2451,66 +2588,72 @@
         <v>1300</v>
       </c>
       <c r="H59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I59" s="3">
         <v>1200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1100</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1700</v>
       </c>
       <c r="K59" s="3">
         <v>1700</v>
       </c>
       <c r="L59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M59" s="3">
         <v>5800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E60" s="3">
         <v>1900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2521,25 +2664,25 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1000</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>400</v>
-      </c>
-      <c r="J61" s="3">
-        <v>300</v>
       </c>
       <c r="K61" s="3">
         <v>300</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -2547,37 +2690,40 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E62" s="3">
         <v>2700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4000</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>8</v>
@@ -2585,8 +2731,11 @@
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,46 +2854,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E66" s="3">
         <v>4600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6300</v>
-      </c>
-      <c r="K66" s="3">
-        <v>6600</v>
       </c>
       <c r="L66" s="3">
         <v>6600</v>
       </c>
       <c r="M66" s="3">
+        <v>6600</v>
+      </c>
+      <c r="N66" s="3">
         <v>3500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,46 +3076,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-36500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-34700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-32200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-28400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-26700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-25300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-23900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-23100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-22400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-22200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-21700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-20900</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,46 +3240,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E76" s="3">
         <v>5600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3268,8 +3467,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,46 +3672,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,16 +3732,17 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -3544,14 +3765,17 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,22 +3853,25 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-100</v>
       </c>
       <c r="F94" s="3">
         <v>-100</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
@@ -3658,14 +3888,17 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>8</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,26 +4075,29 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>11100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2300</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -3862,16 +4108,19 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,42 +4157,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>9200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INVO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INVO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>INVO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,70 +665,74 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -736,19 +740,19 @@
         <v>200</v>
       </c>
       <c r="E8" s="3">
+        <v>200</v>
+      </c>
+      <c r="F8" s="3">
         <v>700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>200</v>
-      </c>
-      <c r="I8" s="3">
-        <v>300</v>
       </c>
       <c r="J8" s="3">
         <v>300</v>
@@ -757,19 +761,22 @@
         <v>300</v>
       </c>
       <c r="L8" s="3">
+        <v>300</v>
+      </c>
+      <c r="M8" s="3">
         <v>700</v>
-      </c>
-      <c r="M8" s="3">
-        <v>200</v>
       </c>
       <c r="N8" s="3">
         <v>200</v>
       </c>
       <c r="O8" s="3">
+        <v>200</v>
+      </c>
+      <c r="P8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -777,11 +784,11 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
         <v>100</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
       <c r="G9" s="3">
         <v>0</v>
       </c>
@@ -798,19 +805,22 @@
         <v>0</v>
       </c>
       <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
         <v>100</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
       <c r="N9" s="3">
         <v>0</v>
       </c>
       <c r="O9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -818,19 +828,19 @@
         <v>200</v>
       </c>
       <c r="E10" s="3">
+        <v>200</v>
+      </c>
+      <c r="F10" s="3">
         <v>600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>200</v>
-      </c>
-      <c r="I10" s="3">
-        <v>300</v>
       </c>
       <c r="J10" s="3">
         <v>300</v>
@@ -839,19 +849,22 @@
         <v>300</v>
       </c>
       <c r="L10" s="3">
+        <v>300</v>
+      </c>
+      <c r="M10" s="3">
         <v>600</v>
-      </c>
-      <c r="M10" s="3">
-        <v>200</v>
       </c>
       <c r="N10" s="3">
         <v>200</v>
       </c>
       <c r="O10" s="3">
+        <v>200</v>
+      </c>
+      <c r="P10" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,31 +880,32 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
         <v>100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>100</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
       <c r="I12" s="3">
         <v>0</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>8</v>
+      <c r="J12" s="3">
+        <v>0</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>8</v>
@@ -908,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -958,22 +978,22 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-200</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -990,8 +1010,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="E17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F17" s="3">
         <v>2200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1900</v>
+        <v>-2300</v>
       </c>
       <c r="E18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,13 +1177,14 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1185,49 +1219,55 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1235,20 +1275,20 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
         <v>900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
@@ -1256,65 +1296,71 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1349,8 +1395,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,13 +1703,16 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1677,49 +1747,55 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,49 +1966,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E41" s="3">
         <v>6600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,29 +2052,32 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>500</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
       <c r="G43" s="3">
         <v>0</v>
       </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
@@ -1992,19 +2085,22 @@
         <v>0</v>
       </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>100</v>
-      </c>
-      <c r="N43" s="3">
-        <v>200</v>
       </c>
       <c r="O43" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2018,7 +2114,7 @@
         <v>300</v>
       </c>
       <c r="G44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H44" s="3">
         <v>200</v>
@@ -2027,7 +2123,7 @@
         <v>200</v>
       </c>
       <c r="J44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K44" s="3">
         <v>100</v>
@@ -2039,13 +2135,16 @@
         <v>100</v>
       </c>
       <c r="N44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2053,10 +2152,10 @@
         <v>300</v>
       </c>
       <c r="E45" s="3">
+        <v>300</v>
+      </c>
+      <c r="F45" s="3">
         <v>400</v>
-      </c>
-      <c r="F45" s="3">
-        <v>200</v>
       </c>
       <c r="G45" s="3">
         <v>200</v>
@@ -2083,68 +2182,74 @@
         <v>200</v>
       </c>
       <c r="O45" s="3">
+        <v>200</v>
+      </c>
+      <c r="P45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E46" s="3">
         <v>7200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>9600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>10500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>400</v>
+      </c>
+      <c r="E47" s="3">
         <v>1000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>100</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
+      <c r="H47" s="3">
+        <v>0</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>8</v>
@@ -2161,22 +2266,25 @@
       <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E48" s="3">
         <v>1500</v>
-      </c>
-      <c r="E48" s="3">
-        <v>200</v>
       </c>
       <c r="F48" s="3">
         <v>200</v>
@@ -2200,16 +2308,19 @@
         <v>200</v>
       </c>
       <c r="M48" s="3">
+        <v>200</v>
+      </c>
+      <c r="N48" s="3">
         <v>100</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2238,7 +2349,7 @@
         <v>100</v>
       </c>
       <c r="L49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2249,8 +2360,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2448,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2345,8 +2465,8 @@
       <c r="F52" s="3">
         <v>0</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>8</v>
+      <c r="G52" s="3">
+        <v>0</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>8</v>
@@ -2360,8 +2480,8 @@
       <c r="K52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2372,8 +2492,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E54" s="3">
         <v>9900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,73 +2618,77 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
-      </c>
-      <c r="H57" s="3">
-        <v>300</v>
       </c>
       <c r="I57" s="3">
         <v>300</v>
       </c>
       <c r="J57" s="3">
+        <v>300</v>
+      </c>
+      <c r="K57" s="3">
         <v>400</v>
-      </c>
-      <c r="K57" s="3">
-        <v>500</v>
       </c>
       <c r="L57" s="3">
         <v>500</v>
       </c>
       <c r="M57" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N57" s="3">
         <v>600</v>
       </c>
       <c r="O57" s="3">
+        <v>600</v>
+      </c>
+      <c r="P57" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>300</v>
+      </c>
+      <c r="E58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="I58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>400</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
@@ -2562,27 +2696,30 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>200</v>
-      </c>
-      <c r="N58" s="3">
-        <v>400</v>
       </c>
       <c r="O58" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E59" s="3">
         <v>1200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1000</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1300</v>
       </c>
       <c r="G59" s="3">
         <v>1300</v>
@@ -2591,69 +2728,75 @@
         <v>1300</v>
       </c>
       <c r="I59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J59" s="3">
         <v>1200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1100</v>
-      </c>
-      <c r="K59" s="3">
-        <v>1700</v>
       </c>
       <c r="L59" s="3">
         <v>1700</v>
       </c>
       <c r="M59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N59" s="3">
         <v>5800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E60" s="3">
         <v>1700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2667,25 +2810,25 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1000</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>400</v>
-      </c>
-      <c r="K61" s="3">
-        <v>300</v>
       </c>
       <c r="L61" s="3">
         <v>300</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
@@ -2693,40 +2836,43 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E62" s="3">
         <v>3900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4000</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>8</v>
@@ -2734,8 +2880,11 @@
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,8 +3012,11 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2866,40 +3024,43 @@
         <v>5600</v>
       </c>
       <c r="E66" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F66" s="3">
         <v>4600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6300</v>
-      </c>
-      <c r="L66" s="3">
-        <v>6600</v>
       </c>
       <c r="M66" s="3">
         <v>6600</v>
       </c>
       <c r="N66" s="3">
+        <v>6600</v>
+      </c>
+      <c r="O66" s="3">
         <v>3500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-38700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-36500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-34700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-32200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-28400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-26700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-25300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-23900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-23100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-22400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-22200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-21700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-20900</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E76" s="3">
         <v>4400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-3100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3470,8 +3669,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,8 +3953,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3744,8 +3965,8 @@
       <c r="E91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -3768,14 +3989,17 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,25 +4083,28 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-300</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-100</v>
       </c>
       <c r="G94" s="3">
         <v>-100</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -3891,14 +4121,17 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>8</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,8 +4321,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4087,20 +4333,20 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>11100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2300</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -4111,16 +4357,19 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,45 +4409,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>9200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INVO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INVO_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,100 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>200</v>
+        <v>3000</v>
       </c>
       <c r="E8" s="3">
         <v>200</v>
       </c>
       <c r="F8" s="3">
+        <v>200</v>
+      </c>
+      <c r="G8" s="3">
         <v>700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>200</v>
-      </c>
-      <c r="J8" s="3">
-        <v>300</v>
       </c>
       <c r="K8" s="3">
         <v>300</v>
@@ -764,19 +767,22 @@
         <v>300</v>
       </c>
       <c r="M8" s="3">
+        <v>300</v>
+      </c>
+      <c r="N8" s="3">
         <v>700</v>
-      </c>
-      <c r="N8" s="3">
-        <v>200</v>
       </c>
       <c r="O8" s="3">
         <v>200</v>
       </c>
       <c r="P8" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -787,11 +793,11 @@
         <v>0</v>
       </c>
       <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
         <v>100</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
       <c r="H9" s="3">
         <v>0</v>
       </c>
@@ -808,42 +814,45 @@
         <v>0</v>
       </c>
       <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
         <v>100</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
       <c r="O9" s="3">
         <v>0</v>
       </c>
       <c r="P9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>200</v>
+        <v>3000</v>
       </c>
       <c r="E10" s="3">
         <v>200</v>
       </c>
       <c r="F10" s="3">
+        <v>200</v>
+      </c>
+      <c r="G10" s="3">
         <v>600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>200</v>
-      </c>
-      <c r="J10" s="3">
-        <v>300</v>
       </c>
       <c r="K10" s="3">
         <v>300</v>
@@ -852,19 +861,22 @@
         <v>300</v>
       </c>
       <c r="M10" s="3">
+        <v>300</v>
+      </c>
+      <c r="N10" s="3">
         <v>600</v>
-      </c>
-      <c r="N10" s="3">
-        <v>200</v>
       </c>
       <c r="O10" s="3">
         <v>200</v>
       </c>
       <c r="P10" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q10" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -890,25 +903,25 @@
         <v>100</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
         <v>100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>100</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
       <c r="J12" s="3">
         <v>0</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>8</v>
+      <c r="K12" s="3">
+        <v>0</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>8</v>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -978,10 +997,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-200</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -995,8 +1014,8 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1013,8 +1032,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,8 +1097,9 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1081,87 +1107,93 @@
         <v>2500</v>
       </c>
       <c r="E17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F17" s="3">
         <v>1900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,17 +1210,18 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1222,76 +1255,82 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
       </c>
       <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
         <v>900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
@@ -1299,72 +1338,78 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -1398,8 +1443,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,17 +1772,20 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>200</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -1750,52 +1819,58 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2052,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E41" s="3">
         <v>4700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>10100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2144,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2064,23 +2156,23 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>500</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
@@ -2088,19 +2180,22 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>100</v>
-      </c>
-      <c r="O43" s="3">
-        <v>200</v>
       </c>
       <c r="P43" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2117,7 +2212,7 @@
         <v>300</v>
       </c>
       <c r="H44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I44" s="3">
         <v>200</v>
@@ -2126,7 +2221,7 @@
         <v>200</v>
       </c>
       <c r="K44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L44" s="3">
         <v>100</v>
@@ -2138,13 +2233,16 @@
         <v>100</v>
       </c>
       <c r="O44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2155,10 +2253,10 @@
         <v>300</v>
       </c>
       <c r="F45" s="3">
+        <v>300</v>
+      </c>
+      <c r="G45" s="3">
         <v>400</v>
-      </c>
-      <c r="G45" s="3">
-        <v>200</v>
       </c>
       <c r="H45" s="3">
         <v>200</v>
@@ -2185,74 +2283,80 @@
         <v>200</v>
       </c>
       <c r="P45" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E46" s="3">
         <v>5300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>9600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>10500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E47" s="3">
         <v>400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>100</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
+      <c r="I47" s="3">
+        <v>0</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>8</v>
@@ -2269,25 +2373,28 @@
       <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E48" s="3">
         <v>2200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1500</v>
-      </c>
-      <c r="F48" s="3">
-        <v>200</v>
       </c>
       <c r="G48" s="3">
         <v>200</v>
@@ -2311,16 +2418,19 @@
         <v>200</v>
       </c>
       <c r="N48" s="3">
+        <v>200</v>
+      </c>
+      <c r="O48" s="3">
         <v>100</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2352,7 +2462,7 @@
         <v>100</v>
       </c>
       <c r="M49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2567,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2468,8 +2587,8 @@
       <c r="G52" s="3">
         <v>0</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>8</v>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>8</v>
@@ -2483,8 +2602,8 @@
       <c r="L52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -2495,8 +2614,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2661,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E54" s="3">
         <v>8100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,79 +2748,83 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
-      </c>
-      <c r="I57" s="3">
-        <v>300</v>
       </c>
       <c r="J57" s="3">
         <v>300</v>
       </c>
       <c r="K57" s="3">
+        <v>300</v>
+      </c>
+      <c r="L57" s="3">
         <v>400</v>
-      </c>
-      <c r="L57" s="3">
-        <v>500</v>
       </c>
       <c r="M57" s="3">
         <v>500</v>
       </c>
       <c r="N57" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="O57" s="3">
         <v>600</v>
       </c>
       <c r="P57" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q57" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3" t="s">
+      <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>400</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
@@ -2699,30 +2832,33 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>200</v>
-      </c>
-      <c r="O58" s="3">
-        <v>400</v>
       </c>
       <c r="P58" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1000</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1300</v>
       </c>
       <c r="H59" s="3">
         <v>1300</v>
@@ -2731,72 +2867,78 @@
         <v>1300</v>
       </c>
       <c r="J59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K59" s="3">
         <v>1200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1100</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1700</v>
       </c>
       <c r="M59" s="3">
         <v>1700</v>
       </c>
       <c r="N59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O59" s="3">
         <v>5800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E60" s="3">
         <v>2100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2813,25 +2955,25 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1000</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>400</v>
-      </c>
-      <c r="L61" s="3">
-        <v>300</v>
       </c>
       <c r="M61" s="3">
         <v>300</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
@@ -2839,43 +2981,46 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E62" s="3">
         <v>3600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4000</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>8</v>
@@ -2883,8 +3028,11 @@
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5600</v>
+        <v>3200</v>
       </c>
       <c r="E66" s="3">
         <v>5600</v>
       </c>
       <c r="F66" s="3">
+        <v>5600</v>
+      </c>
+      <c r="G66" s="3">
         <v>4600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6300</v>
-      </c>
-      <c r="M66" s="3">
-        <v>6600</v>
       </c>
       <c r="N66" s="3">
         <v>6600</v>
       </c>
       <c r="O66" s="3">
+        <v>6600</v>
+      </c>
+      <c r="P66" s="3">
         <v>3500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-38900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-38700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-36500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-34700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-32200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-28400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-26700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-25300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-23900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-23100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-22400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-22200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-21700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-20900</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E76" s="3">
         <v>2600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-3200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-3100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,13 +4173,14 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>300</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>8</v>
@@ -3968,8 +4188,8 @@
       <c r="F91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -3992,14 +4212,17 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,28 +4312,31 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-300</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-100</v>
       </c>
       <c r="H94" s="3">
         <v>-100</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -4124,14 +4353,17 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>8</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,32 +4566,35 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>11100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2300</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -4360,16 +4605,19 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-200</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4660,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>9200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INVO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INVO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>INVO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,105 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3000</v>
+        <v>100</v>
       </c>
       <c r="E8" s="3">
         <v>200</v>
       </c>
       <c r="F8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G8" s="3">
         <v>200</v>
-      </c>
-      <c r="G8" s="3">
-        <v>700</v>
       </c>
       <c r="H8" s="3">
         <v>200</v>
       </c>
       <c r="I8" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="J8" s="3">
         <v>200</v>
@@ -764,46 +772,52 @@
         <v>300</v>
       </c>
       <c r="L8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M8" s="3">
         <v>300</v>
       </c>
       <c r="N8" s="3">
+        <v>300</v>
+      </c>
+      <c r="O8" s="3">
+        <v>300</v>
+      </c>
+      <c r="P8" s="3">
         <v>700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
       <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
         <v>100</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
       <c r="J9" s="3">
         <v>0</v>
       </c>
@@ -817,39 +831,45 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
         <v>100</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
       <c r="Q9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
         <v>3000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>200</v>
-      </c>
-      <c r="F10" s="3">
-        <v>200</v>
-      </c>
-      <c r="G10" s="3">
-        <v>600</v>
       </c>
       <c r="H10" s="3">
         <v>200</v>
       </c>
       <c r="I10" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="J10" s="3">
         <v>200</v>
@@ -858,25 +878,31 @@
         <v>300</v>
       </c>
       <c r="L10" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M10" s="3">
         <v>300</v>
       </c>
       <c r="N10" s="3">
+        <v>300</v>
+      </c>
+      <c r="O10" s="3">
+        <v>300</v>
+      </c>
+      <c r="P10" s="3">
         <v>600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,40 +920,42 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
       </c>
       <c r="F12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G12" s="3">
         <v>100</v>
       </c>
       <c r="H12" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I12" s="3">
         <v>100</v>
       </c>
       <c r="J12" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>8</v>
@@ -941,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,25 +1022,31 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-200</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1017,11 +1057,11 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1035,8 +1075,14 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1150,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F17" s="3">
         <v>2500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>900</v>
-      </c>
-      <c r="N17" s="3">
-        <v>700</v>
-      </c>
-      <c r="O17" s="3">
-        <v>500</v>
       </c>
       <c r="P17" s="3">
         <v>700</v>
       </c>
       <c r="Q17" s="3">
+        <v>500</v>
+      </c>
+      <c r="R17" s="3">
+        <v>700</v>
+      </c>
+      <c r="S17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F18" s="3">
         <v>500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-2300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,22 +1277,24 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
         <v>-100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1258,149 +1326,173 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F21" s="3">
         <v>300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-2400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>2000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>200</v>
-      </c>
-      <c r="O22" s="3">
-        <v>100</v>
-      </c>
-      <c r="P22" s="3">
-        <v>300</v>
       </c>
       <c r="Q22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>300</v>
+      </c>
+      <c r="S22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F23" s="3">
         <v>100</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-1800</v>
       </c>
       <c r="G23" s="3">
         <v>-2500</v>
       </c>
       <c r="H23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="J23" s="3">
         <v>-3800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1413,8 +1505,8 @@
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
+      <c r="G24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1446,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F26" s="3">
         <v>100</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-1800</v>
       </c>
       <c r="G26" s="3">
         <v>-2500</v>
       </c>
       <c r="H26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="J26" s="3">
         <v>-3800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-2200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-3800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,22 +1909,28 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
         <v>100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -1822,55 +1962,67 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-2200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-3800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-2200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-3800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,55 +2225,63 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F41" s="3">
         <v>5700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>4700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>6600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>8400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>10100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>2000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>3100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,8 +2327,14 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2159,43 +2345,49 @@
         <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
+        <v>100</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>500</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
         <v>200</v>
       </c>
       <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+      <c r="R43" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2215,19 +2407,19 @@
         <v>300</v>
       </c>
       <c r="I44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K44" s="3">
         <v>200</v>
       </c>
       <c r="L44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N44" s="3">
         <v>100</v>
@@ -2236,33 +2428,39 @@
         <v>100</v>
       </c>
       <c r="P44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F45" s="3">
         <v>300</v>
       </c>
       <c r="G45" s="3">
+        <v>300</v>
+      </c>
+      <c r="H45" s="3">
+        <v>300</v>
+      </c>
+      <c r="I45" s="3">
         <v>400</v>
-      </c>
-      <c r="H45" s="3">
-        <v>200</v>
-      </c>
-      <c r="I45" s="3">
-        <v>200</v>
       </c>
       <c r="J45" s="3">
         <v>200</v>
@@ -2286,83 +2484,95 @@
         <v>200</v>
       </c>
       <c r="Q45" s="3">
+        <v>200</v>
+      </c>
+      <c r="R45" s="3">
+        <v>200</v>
+      </c>
+      <c r="S45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F46" s="3">
         <v>6300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>5300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>7200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>9600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>10500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>3200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>3400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E47" s="3">
         <v>1500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G47" s="3">
         <v>400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>1000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>100</v>
       </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
+      <c r="K47" s="3">
+        <v>0</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>8</v>
@@ -2376,31 +2586,37 @@
       <c r="O47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E48" s="3">
         <v>2500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G48" s="3">
         <v>2200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1500</v>
-      </c>
-      <c r="G48" s="3">
-        <v>200</v>
-      </c>
-      <c r="H48" s="3">
-        <v>200</v>
       </c>
       <c r="I48" s="3">
         <v>200</v>
@@ -2421,16 +2637,22 @@
         <v>200</v>
       </c>
       <c r="O48" s="3">
+        <v>200</v>
+      </c>
+      <c r="P48" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q48" s="3">
         <v>100</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2465,10 +2687,10 @@
         <v>100</v>
       </c>
       <c r="N49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -2476,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,16 +2804,22 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -2590,11 +2830,11 @@
       <c r="H52" s="3">
         <v>0</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>8</v>
@@ -2605,11 +2845,11 @@
       <c r="M52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -2617,8 +2857,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F54" s="3">
         <v>10500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>8100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>9900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>10200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>10900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>3400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>3500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,19 +3009,21 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E57" s="3">
         <v>500</v>
       </c>
       <c r="F57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G57" s="3">
         <v>500</v>
@@ -2776,75 +3038,87 @@
         <v>300</v>
       </c>
       <c r="K57" s="3">
+        <v>500</v>
+      </c>
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
+        <v>300</v>
+      </c>
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>300</v>
+      <c r="D58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>300</v>
       </c>
       <c r="H58" s="3">
+        <v>200</v>
+      </c>
+      <c r="I58" s="3">
+        <v>300</v>
+      </c>
+      <c r="J58" s="3">
         <v>700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3" t="s">
+      <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>400</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2852,46 +3126,52 @@
         <v>800</v>
       </c>
       <c r="E59" s="3">
+        <v>600</v>
+      </c>
+      <c r="F59" s="3">
+        <v>800</v>
+      </c>
+      <c r="G59" s="3">
         <v>1300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1000</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1300</v>
       </c>
       <c r="J59" s="3">
         <v>1300</v>
       </c>
       <c r="K59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M59" s="3">
         <v>1200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>5800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2899,46 +3179,52 @@
         <v>1300</v>
       </c>
       <c r="E60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G60" s="3">
         <v>2100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1700</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1900</v>
-      </c>
-      <c r="H60" s="3">
-        <v>2300</v>
       </c>
       <c r="I60" s="3">
         <v>1900</v>
       </c>
       <c r="J60" s="3">
-        <v>1600</v>
+        <v>2300</v>
       </c>
       <c r="K60" s="3">
         <v>1900</v>
       </c>
       <c r="L60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N60" s="3">
         <v>1500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>6600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>3500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2958,81 +3244,93 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1000</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>300</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F62" s="3">
         <v>1900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>3600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>3900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>2900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>3100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>3300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>3500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>3700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>3800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>4000</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F66" s="3">
         <v>3200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>5600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>5600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>5200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>5600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>5900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>5400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>5500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>6300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>6600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>6600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-44500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-41700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-38900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-38700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-36500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-34700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-32200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-28400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-26700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-25300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-23900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-23100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-22400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-22200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-21700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-20900</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F76" s="3">
         <v>7300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>4400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>5600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>5700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-3900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-3600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-4400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-3700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-3800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-3200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-3100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-2200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-3800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3873,8 +4271,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-1800</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-900</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-1200</v>
       </c>
       <c r="K89" s="3">
         <v>-900</v>
       </c>
       <c r="L89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="M89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N89" s="3">
         <v>-800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>3100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,28 +4614,30 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>300</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -4215,14 +4657,20 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q91" s="3" t="s">
+      <c r="S91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,35 +4769,41 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-900</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-600</v>
       </c>
       <c r="G94" s="3">
         <v>-300</v>
       </c>
       <c r="H94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -4356,14 +4816,20 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q94" s="3" t="s">
+      <c r="S94" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,38 +5055,44 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>300</v>
+      </c>
+      <c r="F100" s="3">
         <v>3400</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>11100</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
         <v>400</v>
       </c>
       <c r="J100" s="3">
+        <v>11100</v>
+      </c>
+      <c r="K100" s="3">
+        <v>400</v>
+      </c>
+      <c r="L100" s="3">
         <v>2300</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -4608,16 +5100,22 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-200</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,51 +5161,63 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F102" s="3">
         <v>1000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-1800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-1700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>9200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>2800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INVO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INVO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>INVO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,117 +665,121 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>200</v>
+      </c>
+      <c r="E8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3000</v>
-      </c>
-      <c r="G8" s="3">
-        <v>200</v>
       </c>
       <c r="H8" s="3">
         <v>200</v>
       </c>
       <c r="I8" s="3">
+        <v>200</v>
+      </c>
+      <c r="J8" s="3">
         <v>700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>200</v>
-      </c>
-      <c r="M8" s="3">
-        <v>300</v>
       </c>
       <c r="N8" s="3">
         <v>300</v>
@@ -784,19 +788,22 @@
         <v>300</v>
       </c>
       <c r="P8" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q8" s="3">
         <v>700</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>200</v>
       </c>
       <c r="R8" s="3">
         <v>200</v>
       </c>
       <c r="S8" s="3">
+        <v>200</v>
+      </c>
+      <c r="T8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -807,7 +814,7 @@
         <v>100</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -816,11 +823,11 @@
         <v>0</v>
       </c>
       <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
         <v>100</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
       <c r="K9" s="3">
         <v>0</v>
       </c>
@@ -837,51 +844,54 @@
         <v>0</v>
       </c>
       <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
         <v>100</v>
       </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
       <c r="R9" s="3">
         <v>0</v>
       </c>
       <c r="S9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3000</v>
-      </c>
-      <c r="G10" s="3">
-        <v>200</v>
       </c>
       <c r="H10" s="3">
         <v>200</v>
       </c>
       <c r="I10" s="3">
+        <v>200</v>
+      </c>
+      <c r="J10" s="3">
         <v>600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>200</v>
-      </c>
-      <c r="M10" s="3">
-        <v>300</v>
       </c>
       <c r="N10" s="3">
         <v>300</v>
@@ -890,19 +900,22 @@
         <v>300</v>
       </c>
       <c r="P10" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q10" s="3">
         <v>600</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>200</v>
       </c>
       <c r="R10" s="3">
         <v>200</v>
       </c>
       <c r="S10" s="3">
+        <v>200</v>
+      </c>
+      <c r="T10" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -931,7 +945,7 @@
         <v>200</v>
       </c>
       <c r="E12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F12" s="3">
         <v>100</v>
@@ -940,25 +954,25 @@
         <v>100</v>
       </c>
       <c r="H12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
         <v>100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>100</v>
       </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
       <c r="M12" s="3">
         <v>0</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>8</v>
+      <c r="N12" s="3">
+        <v>0</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>8</v>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,28 +1045,31 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-200</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1063,8 +1083,8 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,8 +1178,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1161,105 +1188,111 @@
         <v>2800</v>
       </c>
       <c r="E17" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F17" s="3">
         <v>2900</v>
-      </c>
-      <c r="F17" s="3">
-        <v>2500</v>
       </c>
       <c r="G17" s="3">
         <v>2500</v>
       </c>
       <c r="H17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I17" s="3">
         <v>1900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="E18" s="3">
         <v>-2700</v>
       </c>
       <c r="F18" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="G18" s="3">
         <v>500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,26 +1312,27 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>-100</v>
       </c>
       <c r="F20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1332,61 +1366,67 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-2800</v>
+        <v>-2500</v>
       </c>
       <c r="E21" s="3">
         <v>-2800</v>
       </c>
       <c r="F21" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G21" s="3">
         <v>300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1397,29 +1437,29 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
-      </c>
-      <c r="G22" s="3">
-        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
       </c>
       <c r="I22" s="3">
+        <v>100</v>
+      </c>
+      <c r="J22" s="3">
         <v>900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
@@ -1427,90 +1467,96 @@
         <v>0</v>
       </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2800</v>
+        <v>-2500</v>
       </c>
       <c r="E23" s="3">
         <v>-2800</v>
       </c>
       <c r="F23" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G23" s="3">
         <v>100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2800</v>
+        <v>-2500</v>
       </c>
       <c r="E26" s="3">
         <v>-2800</v>
       </c>
       <c r="F26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G26" s="3">
         <v>100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2800</v>
+        <v>-2500</v>
       </c>
       <c r="E27" s="3">
         <v>-2800</v>
       </c>
       <c r="F27" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,26 +1982,29 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>100</v>
       </c>
       <c r="F32" s="3">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1968,61 +2038,67 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2800</v>
+        <v>-2500</v>
       </c>
       <c r="E33" s="3">
         <v>-2800</v>
       </c>
       <c r="F33" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2800</v>
+        <v>-2500</v>
       </c>
       <c r="E35" s="3">
         <v>-2800</v>
       </c>
       <c r="F35" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
         <v>2000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2351,23 +2444,23 @@
         <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>500</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
@@ -2375,19 +2468,22 @@
         <v>0</v>
       </c>
       <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
         <v>200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>100</v>
-      </c>
-      <c r="R43" s="3">
-        <v>200</v>
       </c>
       <c r="S43" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2413,7 +2509,7 @@
         <v>300</v>
       </c>
       <c r="K44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L44" s="3">
         <v>200</v>
@@ -2422,7 +2518,7 @@
         <v>200</v>
       </c>
       <c r="N44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O44" s="3">
         <v>100</v>
@@ -2434,24 +2530,27 @@
         <v>100</v>
       </c>
       <c r="R44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E45" s="3">
         <v>200</v>
       </c>
       <c r="F45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G45" s="3">
         <v>300</v>
@@ -2460,10 +2559,10 @@
         <v>300</v>
       </c>
       <c r="I45" s="3">
+        <v>300</v>
+      </c>
+      <c r="J45" s="3">
         <v>400</v>
-      </c>
-      <c r="J45" s="3">
-        <v>200</v>
       </c>
       <c r="K45" s="3">
         <v>200</v>
@@ -2490,63 +2589,69 @@
         <v>200</v>
       </c>
       <c r="S45" s="3">
+        <v>200</v>
+      </c>
+      <c r="T45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>900</v>
+      </c>
+      <c r="E46" s="3">
         <v>2500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>10500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2554,28 +2659,28 @@
         <v>1300</v>
       </c>
       <c r="E47" s="3">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="F47" s="3">
         <v>1500</v>
       </c>
       <c r="G47" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H47" s="3">
         <v>400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>100</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
+      <c r="L47" s="3">
+        <v>0</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>8</v>
@@ -2592,34 +2697,37 @@
       <c r="Q47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E48" s="3">
         <v>2400</v>
-      </c>
-      <c r="E48" s="3">
-        <v>2500</v>
       </c>
       <c r="F48" s="3">
         <v>2500</v>
       </c>
       <c r="G48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H48" s="3">
         <v>2200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1500</v>
-      </c>
-      <c r="I48" s="3">
-        <v>200</v>
       </c>
       <c r="J48" s="3">
         <v>200</v>
@@ -2643,16 +2751,19 @@
         <v>200</v>
       </c>
       <c r="Q48" s="3">
+        <v>200</v>
+      </c>
+      <c r="R48" s="3">
         <v>100</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
-      </c>
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2693,7 +2804,7 @@
         <v>100</v>
       </c>
       <c r="P49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2821,8 +2941,8 @@
       <c r="E52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -2836,8 +2956,8 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>8</v>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>8</v>
@@ -2851,8 +2971,8 @@
       <c r="O52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E54" s="3">
         <v>6400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,61 +3141,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E57" s="3">
         <v>500</v>
       </c>
       <c r="F57" s="3">
+        <v>500</v>
+      </c>
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
-      </c>
-      <c r="L57" s="3">
-        <v>300</v>
       </c>
       <c r="M57" s="3">
         <v>300</v>
       </c>
       <c r="N57" s="3">
+        <v>300</v>
+      </c>
+      <c r="O57" s="3">
         <v>400</v>
-      </c>
-      <c r="O57" s="3">
-        <v>500</v>
       </c>
       <c r="P57" s="3">
         <v>500</v>
       </c>
       <c r="Q57" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="R57" s="3">
         <v>600</v>
       </c>
       <c r="S57" s="3">
+        <v>600</v>
+      </c>
+      <c r="T57" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3075,33 +3209,33 @@
       <c r="E58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3" t="s">
+      <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>400</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
@@ -3109,39 +3243,42 @@
         <v>0</v>
       </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>200</v>
-      </c>
-      <c r="R58" s="3">
-        <v>400</v>
       </c>
       <c r="S58" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
         <v>800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1000</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1300</v>
       </c>
       <c r="K59" s="3">
         <v>1300</v>
@@ -3150,81 +3287,87 @@
         <v>1300</v>
       </c>
       <c r="M59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N59" s="3">
         <v>1200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1100</v>
-      </c>
-      <c r="O59" s="3">
-        <v>1700</v>
       </c>
       <c r="P59" s="3">
         <v>1700</v>
       </c>
       <c r="Q59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="R59" s="3">
         <v>5800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E60" s="3">
         <v>1300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3250,25 +3393,25 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1000</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>400</v>
-      </c>
-      <c r="O61" s="3">
-        <v>300</v>
       </c>
       <c r="P61" s="3">
         <v>300</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="R61" s="3">
         <v>0</v>
@@ -3276,52 +3419,55 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="E62" s="3">
         <v>1800</v>
       </c>
       <c r="F62" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G62" s="3">
         <v>1900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4000</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>8</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E66" s="3">
         <v>3100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3200</v>
-      </c>
-      <c r="G66" s="3">
-        <v>5600</v>
       </c>
       <c r="H66" s="3">
         <v>5600</v>
       </c>
       <c r="I66" s="3">
+        <v>5600</v>
+      </c>
+      <c r="J66" s="3">
         <v>4600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6300</v>
-      </c>
-      <c r="P66" s="3">
-        <v>6600</v>
       </c>
       <c r="Q66" s="3">
         <v>6600</v>
       </c>
       <c r="R66" s="3">
+        <v>6600</v>
+      </c>
+      <c r="S66" s="3">
         <v>3500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-47000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-44500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-41700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-38900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-38700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-36500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-34700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-32200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-28400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-26700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-25300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-23900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-23100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-22400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-22200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-21700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-20900</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E76" s="3">
         <v>3400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-4400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-3700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-3800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-3100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2800</v>
+        <v>-2500</v>
       </c>
       <c r="E81" s="3">
         <v>-2800</v>
       </c>
       <c r="F81" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4628,10 +4849,10 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>300</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>8</v>
@@ -4639,8 +4860,8 @@
       <c r="I91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -4663,14 +4884,17 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>8</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4784,28 +5014,28 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-300</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-100</v>
       </c>
       <c r="K94" s="3">
         <v>-100</v>
       </c>
       <c r="L94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -4822,14 +5052,17 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>8</v>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5070,32 +5316,32 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3400</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>11100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2300</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -5106,16 +5352,19 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-200</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>9200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INVO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INVO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>INVO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,125 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F8" s="3">
         <v>200</v>
       </c>
       <c r="G8" s="3">
-        <v>3000</v>
+        <v>100</v>
       </c>
       <c r="H8" s="3">
         <v>200</v>
       </c>
       <c r="I8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J8" s="3">
         <v>200</v>
-      </c>
-      <c r="J8" s="3">
-        <v>700</v>
       </c>
       <c r="K8" s="3">
         <v>200</v>
       </c>
       <c r="L8" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="M8" s="3">
         <v>200</v>
@@ -785,25 +792,31 @@
         <v>300</v>
       </c>
       <c r="O8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P8" s="3">
         <v>300</v>
       </c>
       <c r="Q8" s="3">
+        <v>300</v>
+      </c>
+      <c r="R8" s="3">
+        <v>300</v>
+      </c>
+      <c r="S8" s="3">
         <v>700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -817,23 +830,23 @@
         <v>100</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
       <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
         <v>100</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
       <c r="M9" s="3">
         <v>0</v>
       </c>
@@ -847,48 +860,54 @@
         <v>0</v>
       </c>
       <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
         <v>100</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
       <c r="T9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F10" s="3">
         <v>100</v>
       </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>100</v>
+      </c>
+      <c r="I10" s="3">
         <v>3000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>200</v>
-      </c>
-      <c r="I10" s="3">
-        <v>200</v>
-      </c>
-      <c r="J10" s="3">
-        <v>600</v>
       </c>
       <c r="K10" s="3">
         <v>200</v>
       </c>
       <c r="L10" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M10" s="3">
         <v>200</v>
@@ -897,25 +916,31 @@
         <v>300</v>
       </c>
       <c r="O10" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P10" s="3">
         <v>300</v>
       </c>
       <c r="Q10" s="3">
+        <v>300</v>
+      </c>
+      <c r="R10" s="3">
+        <v>300</v>
+      </c>
+      <c r="S10" s="3">
         <v>600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,49 +961,51 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>100</v>
+      </c>
+      <c r="F12" s="3">
         <v>200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>200</v>
-      </c>
-      <c r="F12" s="3">
-        <v>100</v>
-      </c>
-      <c r="G12" s="3">
-        <v>100</v>
       </c>
       <c r="H12" s="3">
         <v>100</v>
       </c>
       <c r="I12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J12" s="3">
         <v>100</v>
       </c>
       <c r="K12" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L12" s="3">
         <v>100</v>
       </c>
       <c r="M12" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>8</v>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,34 +1081,40 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-200</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1086,11 +1125,11 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1104,8 +1143,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1230,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F17" s="3">
         <v>2800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>900</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>700</v>
-      </c>
-      <c r="R17" s="3">
-        <v>500</v>
       </c>
       <c r="S17" s="3">
         <v>700</v>
       </c>
       <c r="T17" s="3">
+        <v>500</v>
+      </c>
+      <c r="U17" s="3">
+        <v>700</v>
+      </c>
+      <c r="V17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>-2600</v>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E18" s="3">
         <v>-2700</v>
       </c>
       <c r="F18" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="G18" s="3">
         <v>-2700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="I18" s="3">
         <v>500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-2300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,31 +1378,33 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-200</v>
       </c>
       <c r="H20" s="3">
         <v>-100</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1369,187 +1436,211 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-2800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-2800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-2400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-1400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>2000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>200</v>
-      </c>
-      <c r="R22" s="3">
-        <v>100</v>
-      </c>
-      <c r="S22" s="3">
-        <v>300</v>
       </c>
       <c r="T22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>300</v>
+      </c>
+      <c r="V22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>-2500</v>
+      <c r="D23" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E23" s="3">
         <v>-2800</v>
       </c>
       <c r="F23" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="G23" s="3">
         <v>-2800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="I23" s="3">
         <v>100</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-1800</v>
       </c>
       <c r="J23" s="3">
         <v>-2500</v>
       </c>
       <c r="K23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="M23" s="3">
         <v>-3800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>8</v>
+      <c r="F24" s="3">
+        <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1560,8 +1651,8 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="J24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1593,8 +1684,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1746,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-2500</v>
+      <c r="D26" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E26" s="3">
         <v>-2800</v>
       </c>
       <c r="F26" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="G26" s="3">
         <v>-2800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="I26" s="3">
         <v>100</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-1800</v>
       </c>
       <c r="J26" s="3">
         <v>-2500</v>
       </c>
       <c r="K26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="M26" s="3">
         <v>-3800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-2500</v>
+      <c r="D27" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E27" s="3">
         <v>-2800</v>
       </c>
       <c r="F27" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="G27" s="3">
         <v>-2800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-3800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,31 +2118,37 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
-      </c>
-      <c r="F32" s="3">
-        <v>100</v>
-      </c>
-      <c r="G32" s="3">
-        <v>200</v>
       </c>
       <c r="H32" s="3">
         <v>100</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -2041,64 +2180,76 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-2500</v>
+      <c r="D33" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E33" s="3">
         <v>-2800</v>
       </c>
       <c r="F33" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="G33" s="3">
         <v>-2800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-2500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-3800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2304,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-2500</v>
+      <c r="D35" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E35" s="3">
         <v>-2800</v>
       </c>
       <c r="F35" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="G35" s="3">
         <v>-2800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-2500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-3800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2485,72 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>3800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>5700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>4700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>6600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>8400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>10100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>2000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>2700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>3100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2605,14 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2447,43 +2632,49 @@
         <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
+        <v>100</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>500</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
       <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
       <c r="Q43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S43" s="3">
         <v>200</v>
       </c>
       <c r="T43" s="3">
+        <v>100</v>
+      </c>
+      <c r="U43" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2512,19 +2703,19 @@
         <v>300</v>
       </c>
       <c r="L44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N44" s="3">
         <v>200</v>
       </c>
       <c r="O44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q44" s="3">
         <v>100</v>
@@ -2533,13 +2724,19 @@
         <v>100</v>
       </c>
       <c r="S44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2550,25 +2747,25 @@
         <v>200</v>
       </c>
       <c r="F45" s="3">
+        <v>300</v>
+      </c>
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
-        <v>300</v>
-      </c>
       <c r="H45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I45" s="3">
         <v>300</v>
       </c>
       <c r="J45" s="3">
+        <v>300</v>
+      </c>
+      <c r="K45" s="3">
+        <v>300</v>
+      </c>
+      <c r="L45" s="3">
         <v>400</v>
-      </c>
-      <c r="K45" s="3">
-        <v>200</v>
-      </c>
-      <c r="L45" s="3">
-        <v>200</v>
       </c>
       <c r="M45" s="3">
         <v>200</v>
@@ -2592,101 +2789,113 @@
         <v>200</v>
       </c>
       <c r="T45" s="3">
+        <v>200</v>
+      </c>
+      <c r="U45" s="3">
+        <v>200</v>
+      </c>
+      <c r="V45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>600</v>
+      </c>
+      <c r="F46" s="3">
         <v>900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>4400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>6300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>5300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>7200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>9600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>10500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>2300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>3200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>3400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F47" s="3">
         <v>1300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>1300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>1500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>1500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>1000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>100</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
+      <c r="N47" s="3">
+        <v>0</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>8</v>
@@ -2700,40 +2909,46 @@
       <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
-      </c>
-      <c r="T47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F48" s="3">
         <v>2300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1500</v>
-      </c>
-      <c r="J48" s="3">
-        <v>200</v>
-      </c>
-      <c r="K48" s="3">
-        <v>200</v>
       </c>
       <c r="L48" s="3">
         <v>200</v>
@@ -2754,24 +2969,30 @@
         <v>200</v>
       </c>
       <c r="R48" s="3">
+        <v>200</v>
+      </c>
+      <c r="S48" s="3">
+        <v>200</v>
+      </c>
+      <c r="T48" s="3">
         <v>100</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
-      </c>
-      <c r="T48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>100</v>
+      <c r="D49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F49" s="3">
         <v>100</v>
@@ -2807,10 +3028,10 @@
         <v>100</v>
       </c>
       <c r="Q49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -2818,8 +3039,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,19 +3163,25 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>8</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -2959,11 +3198,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>8</v>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>8</v>
@@ -2974,11 +3213,11 @@
       <c r="P52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -2986,8 +3225,14 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3287,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F54" s="3">
         <v>4700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>6400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>8500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>10500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>8100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>9900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>10200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>10900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>3400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>3500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,28 +3401,30 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
-      </c>
-      <c r="F57" s="3">
-        <v>500</v>
-      </c>
-      <c r="G57" s="3">
-        <v>400</v>
       </c>
       <c r="H57" s="3">
         <v>500</v>
       </c>
       <c r="I57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J57" s="3">
         <v>500</v>
@@ -3178,196 +3439,220 @@
         <v>300</v>
       </c>
       <c r="N57" s="3">
+        <v>500</v>
+      </c>
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>800</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>300</v>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>300</v>
       </c>
       <c r="K58" s="3">
+        <v>200</v>
+      </c>
+      <c r="L58" s="3">
+        <v>300</v>
+      </c>
+      <c r="M58" s="3">
         <v>700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3" t="s">
+      <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>400</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
       <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
         <v>200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F59" s="3">
         <v>1000</v>
-      </c>
-      <c r="E59" s="3">
-        <v>800</v>
-      </c>
-      <c r="F59" s="3">
-        <v>600</v>
       </c>
       <c r="G59" s="3">
         <v>800</v>
       </c>
       <c r="H59" s="3">
+        <v>600</v>
+      </c>
+      <c r="I59" s="3">
+        <v>800</v>
+      </c>
+      <c r="J59" s="3">
         <v>1300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1000</v>
-      </c>
-      <c r="K59" s="3">
-        <v>1300</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1300</v>
       </c>
       <c r="M59" s="3">
         <v>1300</v>
       </c>
       <c r="N59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P59" s="3">
         <v>1200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>5800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>2500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F60" s="3">
         <v>1700</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1300</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1100</v>
       </c>
       <c r="G60" s="3">
         <v>1300</v>
       </c>
       <c r="H60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J60" s="3">
         <v>2100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1700</v>
-      </c>
-      <c r="J60" s="3">
-        <v>1900</v>
-      </c>
-      <c r="K60" s="3">
-        <v>2300</v>
       </c>
       <c r="L60" s="3">
         <v>1900</v>
       </c>
       <c r="M60" s="3">
-        <v>1600</v>
+        <v>2300</v>
       </c>
       <c r="N60" s="3">
         <v>1900</v>
       </c>
       <c r="O60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q60" s="3">
         <v>1500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>6600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>3500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3396,90 +3681,102 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1000</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>300</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E62" s="3">
         <v>1700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G62" s="3">
         <v>1800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>3600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>3900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>3100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>3300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>3500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>3700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>3800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>4000</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3955,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F66" s="3">
         <v>3400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>5600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>5600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>5200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>5600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>5900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>5400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>5500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>6300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>6600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>6600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>3500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-52300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-49800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-47000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-44500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-41700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-38900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-38700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-36500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-34700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-32200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-28400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-26700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-25300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-23900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-23100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-22400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-22200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-21700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-20900</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F76" s="3">
         <v>1300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>3400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>5600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>7300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>2600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>4400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>5600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>5700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-3900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-3600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-4400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-3700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-3200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-3100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-2700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4661,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-2500</v>
+      <c r="D81" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E81" s="3">
         <v>-2800</v>
       </c>
       <c r="F81" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="G81" s="3">
         <v>-2800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-2500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-3800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4818,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4876,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +5186,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-2100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-1600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1800</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-900</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-1200</v>
       </c>
       <c r="N89" s="3">
         <v>-900</v>
       </c>
       <c r="O89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="P89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>3100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5276,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4852,49 +5293,55 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>300</v>
-      </c>
-      <c r="H91" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I91" s="3" t="s">
+      <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J91" s="3" t="s">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3" t="s">
+      <c r="V91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5458,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5017,32 +5476,32 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-900</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-600</v>
       </c>
       <c r="J94" s="3">
         <v>-300</v>
       </c>
       <c r="K94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -5055,14 +5514,20 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T94" s="3" t="s">
+      <c r="V94" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,47 +5792,53 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>3400</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>11100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
         <v>400</v>
       </c>
       <c r="M100" s="3">
+        <v>11100</v>
+      </c>
+      <c r="N100" s="3">
+        <v>400</v>
+      </c>
+      <c r="O100" s="3">
         <v>2300</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -5355,16 +5846,22 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-200</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5916,72 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-1800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-1900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-1800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>9200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>1200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>2800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INVO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INVO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>INVO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -765,37 +769,37 @@
         <v>300</v>
       </c>
       <c r="F8" s="3">
+        <v>300</v>
+      </c>
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3000</v>
-      </c>
-      <c r="J8" s="3">
-        <v>200</v>
       </c>
       <c r="K8" s="3">
         <v>200</v>
       </c>
       <c r="L8" s="3">
+        <v>200</v>
+      </c>
+      <c r="M8" s="3">
         <v>700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>200</v>
-      </c>
-      <c r="P8" s="3">
-        <v>300</v>
       </c>
       <c r="Q8" s="3">
         <v>300</v>
@@ -804,24 +808,27 @@
         <v>300</v>
       </c>
       <c r="S8" s="3">
+        <v>300</v>
+      </c>
+      <c r="T8" s="3">
         <v>700</v>
-      </c>
-      <c r="T8" s="3">
-        <v>200</v>
       </c>
       <c r="U8" s="3">
         <v>200</v>
       </c>
       <c r="V8" s="3">
+        <v>200</v>
+      </c>
+      <c r="W8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E9" s="3">
         <v>100</v>
@@ -833,11 +840,11 @@
         <v>100</v>
       </c>
       <c r="H9" s="3">
+        <v>200</v>
+      </c>
+      <c r="I9" s="3">
         <v>100</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
       <c r="J9" s="3">
         <v>0</v>
       </c>
@@ -845,11 +852,11 @@
         <v>0</v>
       </c>
       <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
         <v>100</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
       <c r="N9" s="3">
         <v>0</v>
       </c>
@@ -866,60 +873,63 @@
         <v>0</v>
       </c>
       <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
         <v>100</v>
       </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
       <c r="U9" s="3">
         <v>0</v>
       </c>
       <c r="V9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
         <v>200</v>
       </c>
       <c r="F10" s="3">
+        <v>200</v>
+      </c>
+      <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I10" s="3">
         <v>100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3000</v>
-      </c>
-      <c r="J10" s="3">
-        <v>200</v>
       </c>
       <c r="K10" s="3">
         <v>200</v>
       </c>
       <c r="L10" s="3">
+        <v>200</v>
+      </c>
+      <c r="M10" s="3">
         <v>600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>200</v>
-      </c>
-      <c r="P10" s="3">
-        <v>300</v>
       </c>
       <c r="Q10" s="3">
         <v>300</v>
@@ -928,19 +938,22 @@
         <v>300</v>
       </c>
       <c r="S10" s="3">
+        <v>300</v>
+      </c>
+      <c r="T10" s="3">
         <v>600</v>
-      </c>
-      <c r="T10" s="3">
-        <v>200</v>
       </c>
       <c r="U10" s="3">
         <v>200</v>
       </c>
       <c r="V10" s="3">
+        <v>200</v>
+      </c>
+      <c r="W10" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,13 +989,13 @@
         <v>100</v>
       </c>
       <c r="F12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G12" s="3">
         <v>200</v>
       </c>
       <c r="H12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I12" s="3">
         <v>100</v>
@@ -990,25 +1004,25 @@
         <v>100</v>
       </c>
       <c r="K12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
         <v>100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>100</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
       <c r="P12" s="3">
         <v>0</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>8</v>
+      <c r="Q12" s="3">
+        <v>0</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>8</v>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,37 +1104,40 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-200</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1131,8 +1151,8 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1149,31 +1169,34 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>2400</v>
       </c>
       <c r="E17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F17" s="3">
         <v>3000</v>
-      </c>
-      <c r="F17" s="3">
-        <v>2800</v>
       </c>
       <c r="G17" s="3">
         <v>2800</v>
       </c>
       <c r="H17" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I17" s="3">
         <v>2900</v>
-      </c>
-      <c r="I17" s="3">
-        <v>2500</v>
       </c>
       <c r="J17" s="3">
         <v>2500</v>
       </c>
       <c r="K17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L17" s="3">
         <v>1900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>-2100</v>
       </c>
       <c r="E18" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2600</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-2700</v>
       </c>
       <c r="H18" s="3">
         <v>-2700</v>
       </c>
       <c r="I18" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="J18" s="3">
         <v>500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-600</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,13 +1413,14 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1395,20 +1429,20 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>-100</v>
       </c>
       <c r="I20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1442,70 +1476,76 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>-2000</v>
       </c>
       <c r="E21" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2500</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-2800</v>
       </c>
       <c r="H21" s="3">
         <v>-2800</v>
       </c>
       <c r="I21" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="J21" s="3">
         <v>300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1513,11 +1553,11 @@
         <v>200</v>
       </c>
       <c r="E22" s="3">
+        <v>200</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
@@ -1525,29 +1565,29 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>200</v>
-      </c>
-      <c r="J22" s="3">
-        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
       </c>
       <c r="L22" s="3">
+        <v>100</v>
+      </c>
+      <c r="M22" s="3">
         <v>900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>300</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
@@ -1555,108 +1595,114 @@
         <v>0</v>
       </c>
       <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
         <v>200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>8</v>
+      <c r="D23" s="3">
+        <v>-2200</v>
       </c>
       <c r="E23" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2500</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-2800</v>
       </c>
       <c r="H23" s="3">
         <v>-2800</v>
       </c>
       <c r="I23" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="J23" s="3">
         <v>100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3" t="s">
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>-2200</v>
       </c>
       <c r="E26" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2500</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-2800</v>
       </c>
       <c r="H26" s="3">
         <v>-2800</v>
       </c>
       <c r="I26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="J26" s="3">
         <v>100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>-2200</v>
       </c>
       <c r="E27" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2500</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-2800</v>
       </c>
       <c r="H27" s="3">
         <v>-2800</v>
       </c>
       <c r="I27" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,13 +2191,16 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2139,20 +2209,20 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>100</v>
       </c>
       <c r="I32" s="3">
+        <v>100</v>
+      </c>
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2186,70 +2256,76 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>-2200</v>
       </c>
       <c r="E33" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2500</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-2800</v>
       </c>
       <c r="H33" s="3">
         <v>-2800</v>
       </c>
       <c r="I33" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>-2200</v>
       </c>
       <c r="E35" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2500</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-2800</v>
       </c>
       <c r="H35" s="3">
         <v>-2800</v>
       </c>
       <c r="I35" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>2200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2638,23 +2731,23 @@
         <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>500</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
       <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
       <c r="Q43" s="3">
         <v>0</v>
       </c>
@@ -2662,19 +2755,22 @@
         <v>0</v>
       </c>
       <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
         <v>200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>100</v>
-      </c>
-      <c r="U43" s="3">
-        <v>200</v>
       </c>
       <c r="V43" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2709,7 +2805,7 @@
         <v>300</v>
       </c>
       <c r="N44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O44" s="3">
         <v>200</v>
@@ -2718,7 +2814,7 @@
         <v>200</v>
       </c>
       <c r="Q44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R44" s="3">
         <v>100</v>
@@ -2730,33 +2826,36 @@
         <v>100</v>
       </c>
       <c r="U44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
-      </c>
-      <c r="G45" s="3">
-        <v>200</v>
       </c>
       <c r="H45" s="3">
         <v>200</v>
       </c>
       <c r="I45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J45" s="3">
         <v>300</v>
@@ -2765,10 +2864,10 @@
         <v>300</v>
       </c>
       <c r="L45" s="3">
+        <v>300</v>
+      </c>
+      <c r="M45" s="3">
         <v>400</v>
-      </c>
-      <c r="M45" s="3">
-        <v>200</v>
       </c>
       <c r="N45" s="3">
         <v>200</v>
@@ -2795,110 +2894,116 @@
         <v>200</v>
       </c>
       <c r="V45" s="3">
+        <v>200</v>
+      </c>
+      <c r="W45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>800</v>
+      </c>
+      <c r="E46" s="3">
         <v>2800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E47" s="3">
         <v>1200</v>
       </c>
       <c r="F47" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G47" s="3">
         <v>1300</v>
       </c>
       <c r="H47" s="3">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="I47" s="3">
         <v>1500</v>
       </c>
       <c r="J47" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K47" s="3">
         <v>400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>100</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>8</v>
+      <c r="O47" s="3">
+        <v>0</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>8</v>
@@ -2915,43 +3020,46 @@
       <c r="T47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U47" s="3">
-        <v>0</v>
+      <c r="U47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2200</v>
+        <v>4700</v>
       </c>
       <c r="E48" s="3">
         <v>2200</v>
       </c>
       <c r="F48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G48" s="3">
         <v>2300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2400</v>
-      </c>
-      <c r="H48" s="3">
-        <v>2500</v>
       </c>
       <c r="I48" s="3">
         <v>2500</v>
       </c>
       <c r="J48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K48" s="3">
         <v>2200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1500</v>
-      </c>
-      <c r="L48" s="3">
-        <v>200</v>
       </c>
       <c r="M48" s="3">
         <v>200</v>
@@ -2975,27 +3083,30 @@
         <v>200</v>
       </c>
       <c r="T48" s="3">
+        <v>200</v>
+      </c>
+      <c r="U48" s="3">
         <v>100</v>
       </c>
-      <c r="U48" s="3">
-        <v>0</v>
-      </c>
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
+      <c r="E49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G49" s="3">
         <v>100</v>
@@ -3034,7 +3145,7 @@
         <v>100</v>
       </c>
       <c r="S49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3204,8 +3324,8 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>8</v>
+      <c r="N52" s="3">
+        <v>0</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>8</v>
@@ -3219,8 +3339,8 @@
       <c r="R52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E54" s="3">
         <v>6200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3412,72 +3543,75 @@
         <v>1800</v>
       </c>
       <c r="E57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F57" s="3">
         <v>1300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
-      </c>
-      <c r="G57" s="3">
-        <v>500</v>
       </c>
       <c r="H57" s="3">
         <v>500</v>
       </c>
       <c r="I57" s="3">
+        <v>500</v>
+      </c>
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>500</v>
-      </c>
-      <c r="O57" s="3">
-        <v>300</v>
       </c>
       <c r="P57" s="3">
         <v>300</v>
       </c>
       <c r="Q57" s="3">
+        <v>300</v>
+      </c>
+      <c r="R57" s="3">
         <v>400</v>
-      </c>
-      <c r="R57" s="3">
-        <v>500</v>
       </c>
       <c r="S57" s="3">
         <v>500</v>
       </c>
       <c r="T57" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="U57" s="3">
         <v>600</v>
       </c>
       <c r="V57" s="3">
+        <v>600</v>
+      </c>
+      <c r="W57" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>800</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
@@ -3485,33 +3619,33 @@
       <c r="H58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>200</v>
       </c>
-      <c r="O58" s="3" t="s">
+      <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>400</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
       <c r="R58" s="3">
         <v>0</v>
       </c>
@@ -3519,48 +3653,51 @@
         <v>0</v>
       </c>
       <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
         <v>200</v>
-      </c>
-      <c r="U58" s="3">
-        <v>400</v>
       </c>
       <c r="V58" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E59" s="3">
         <v>1500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1000</v>
-      </c>
-      <c r="M59" s="3">
-        <v>1300</v>
       </c>
       <c r="N59" s="3">
         <v>1300</v>
@@ -3569,28 +3706,31 @@
         <v>1300</v>
       </c>
       <c r="P59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1100</v>
-      </c>
-      <c r="R59" s="3">
-        <v>1700</v>
       </c>
       <c r="S59" s="3">
         <v>1700</v>
       </c>
       <c r="T59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="U59" s="3">
         <v>5800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3598,61 +3738,64 @@
         <v>4500</v>
       </c>
       <c r="E60" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F60" s="3">
         <v>3400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3687,25 +3830,25 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1000</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>400</v>
-      </c>
-      <c r="R61" s="3">
-        <v>300</v>
       </c>
       <c r="S61" s="3">
         <v>300</v>
       </c>
       <c r="T61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="U61" s="3">
         <v>0</v>
@@ -3713,61 +3856,64 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E62" s="3">
         <v>1600</v>
-      </c>
-      <c r="E62" s="3">
-        <v>1700</v>
       </c>
       <c r="F62" s="3">
         <v>1700</v>
       </c>
       <c r="G62" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="H62" s="3">
         <v>1800</v>
       </c>
       <c r="I62" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J62" s="3">
         <v>1900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4000</v>
-      </c>
-      <c r="T62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>8</v>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E66" s="3">
         <v>6100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3200</v>
-      </c>
-      <c r="J66" s="3">
-        <v>5600</v>
       </c>
       <c r="K66" s="3">
         <v>5600</v>
       </c>
       <c r="L66" s="3">
+        <v>5600</v>
+      </c>
+      <c r="M66" s="3">
         <v>4600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6300</v>
-      </c>
-      <c r="S66" s="3">
-        <v>6600</v>
       </c>
       <c r="T66" s="3">
         <v>6600</v>
       </c>
       <c r="U66" s="3">
+        <v>6600</v>
+      </c>
+      <c r="V66" s="3">
         <v>3500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-54600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-52300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-49800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-47000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-44500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-41700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-38900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-38700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-36500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-34700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-32200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-28400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-26700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-25300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-23900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-23100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-22400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-22200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-21700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-20900</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E76" s="3">
         <v>100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-3900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-3600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-3700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-3800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-3200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-3100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-2700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>-2200</v>
       </c>
       <c r="E81" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2500</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-2800</v>
       </c>
       <c r="H81" s="3">
         <v>-2800</v>
       </c>
       <c r="I81" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1100</v>
+        <v>-1600</v>
       </c>
       <c r="E89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,13 +5498,14 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -5299,19 +5520,19 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-700</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -5334,14 +5555,17 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>8</v>
+      <c r="U91" s="3">
+        <v>0</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,13 +5691,16 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -5482,28 +5712,28 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-300</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-100</v>
       </c>
       <c r="N94" s="3">
         <v>-100</v>
       </c>
       <c r="O94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -5520,14 +5750,17 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>8</v>
+      <c r="U94" s="3">
+        <v>0</v>
       </c>
       <c r="V94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,50 +6041,53 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E100" s="3">
         <v>3300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>800</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>3400</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>11100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2300</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -5852,16 +6098,19 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-200</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E102" s="3">
         <v>2100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>9200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-200</v>
       </c>
     </row>
